--- a/data/study_2_scaled.xlsx
+++ b/data/study_2_scaled.xlsx
@@ -12,6 +12,8 @@
     <sheet name="low-res" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="hi-res" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="hi-res2" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'hi-res'!$A$1:$D$21</definedName>
@@ -374,13 +376,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.00E+00"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -447,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,11 +495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,7 +603,7 @@
       </c>
       <c r="K2" s="1" t="str">
         <f aca="false">$G14</f>
-        <v> 0.00%</v>
+        <v>0.00%</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +981,7 @@
       </c>
       <c r="K18" s="1" t="str">
         <f aca="false">$G30</f>
-        <v> 18.83%</v>
+        <v>18.83%</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1359,7 @@
       </c>
       <c r="K34" s="1" t="str">
         <f aca="false">$G46</f>
-        <v> 6.21%</v>
+        <v>6.21%</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +1737,7 @@
       </c>
       <c r="K50" s="1" t="str">
         <f aca="false">$G62</f>
-        <v> 0.37%</v>
+        <v>0.37%</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,7 +2115,7 @@
       </c>
       <c r="K66" s="1" t="str">
         <f aca="false">$G78</f>
-        <v> 0.00%</v>
+        <v>0.00%</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2493,7 @@
       </c>
       <c r="K82" s="1" t="str">
         <f aca="false">$G94</f>
-        <v> 4.28%</v>
+        <v>4.28%</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,7 +2871,7 @@
       </c>
       <c r="K98" s="1" t="str">
         <f aca="false">$G110</f>
-        <v> 2.43%</v>
+        <v>2.43%</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3249,7 @@
       </c>
       <c r="K114" s="1" t="str">
         <f aca="false">$G126</f>
-        <v> 20.90%</v>
+        <v>20.90%</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3627,7 @@
       </c>
       <c r="K130" s="1" t="str">
         <f aca="false">$G142</f>
-        <v> 0.00%</v>
+        <v>0.00%</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4005,7 @@
       </c>
       <c r="K146" s="1" t="str">
         <f aca="false">$G158</f>
-        <v> 13.38%</v>
+        <v>13.38%</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4383,7 @@
       </c>
       <c r="K162" s="1" t="str">
         <f aca="false">$G174</f>
-        <v> 0.52%</v>
+        <v>0.52%</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,7 +4761,7 @@
       </c>
       <c r="K178" s="1" t="str">
         <f aca="false">$G190</f>
-        <v> 11.41%</v>
+        <v>11.41%</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,7 +5139,7 @@
       </c>
       <c r="K194" s="1" t="str">
         <f aca="false">$G206</f>
-        <v> 0.00%</v>
+        <v>0.00%</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +5517,7 @@
       </c>
       <c r="K210" s="1" t="str">
         <f aca="false">$G222</f>
-        <v> 17.20%</v>
+        <v>17.20%</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5895,7 @@
       </c>
       <c r="K226" s="1" t="str">
         <f aca="false">$G238</f>
-        <v> 8.58%</v>
+        <v>8.58%</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,7 +6273,7 @@
       </c>
       <c r="K242" s="1" t="str">
         <f aca="false">$G254</f>
-        <v> 0.91%</v>
+        <v>0.91%</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,7 +6651,7 @@
       </c>
       <c r="K258" s="1" t="str">
         <f aca="false">$G270</f>
-        <v> 4.92%</v>
+        <v>4.92%</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7030,7 +7029,7 @@
       </c>
       <c r="K274" s="1" t="str">
         <f aca="false">$G286</f>
-        <v> 12.85%</v>
+        <v>12.85%</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,7 +7407,7 @@
       </c>
       <c r="K290" s="1" t="str">
         <f aca="false">$G302</f>
-        <v> 21.57%</v>
+        <v>21.57%</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7786,7 +7785,7 @@
       </c>
       <c r="K306" s="1" t="str">
         <f aca="false">$G318</f>
-        <v> 0.82%</v>
+        <v>0.82%</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,7 +8158,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8482,7 +8481,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.12"/>
   </cols>
@@ -8503,7 +8502,7 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8540,9 +8539,9 @@
       </c>
       <c r="K2" s="1" t="str">
         <f aca="false">$G14</f>
-        <v> 0.00%</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>0.00%</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -8921,9 +8920,9 @@
       </c>
       <c r="K18" s="1" t="str">
         <f aca="false">$G30</f>
-        <v> 19.91%</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v>19.91%</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -9302,9 +9301,9 @@
       </c>
       <c r="K34" s="1" t="str">
         <f aca="false">$G46</f>
-        <v> 0.00%</v>
-      </c>
-      <c r="L34" s="0" t="n">
+        <v>0.00%</v>
+      </c>
+      <c r="L34" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9683,9 +9682,9 @@
       </c>
       <c r="K50" s="1" t="str">
         <f aca="false">$G62</f>
-        <v> 22.36%</v>
-      </c>
-      <c r="L50" s="0" t="n">
+        <v>22.36%</v>
+      </c>
+      <c r="L50" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10064,9 +10063,9 @@
       </c>
       <c r="K66" s="1" t="str">
         <f aca="false">$G78</f>
-        <v> 13.74%</v>
-      </c>
-      <c r="L66" s="0" t="n">
+        <v>13.74%</v>
+      </c>
+      <c r="L66" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -10445,9 +10444,9 @@
       </c>
       <c r="K82" s="1" t="str">
         <f aca="false">$G94</f>
-        <v> 4.42%</v>
-      </c>
-      <c r="L82" s="0" t="n">
+        <v>4.42%</v>
+      </c>
+      <c r="L82" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10826,9 +10825,9 @@
       </c>
       <c r="K98" s="1" t="str">
         <f aca="false">$G110</f>
-        <v> 3.18%</v>
-      </c>
-      <c r="L98" s="0" t="n">
+        <v>3.18%</v>
+      </c>
+      <c r="L98" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11207,9 +11206,9 @@
       </c>
       <c r="K114" s="1" t="str">
         <f aca="false">$G126</f>
-        <v> 0.28%</v>
-      </c>
-      <c r="L114" s="0" t="n">
+        <v>0.28%</v>
+      </c>
+      <c r="L114" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11588,9 +11587,9 @@
       </c>
       <c r="K130" s="1" t="str">
         <f aca="false">$G142</f>
-        <v> 0.00%</v>
-      </c>
-      <c r="L130" s="0" t="n">
+        <v>0.00%</v>
+      </c>
+      <c r="L130" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11969,9 +11968,9 @@
       </c>
       <c r="K146" s="1" t="str">
         <f aca="false">$G158</f>
-        <v> 1.83%</v>
-      </c>
-      <c r="L146" s="0" t="n">
+        <v>1.83%</v>
+      </c>
+      <c r="L146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12350,9 +12349,9 @@
       </c>
       <c r="K162" s="1" t="str">
         <f aca="false">$G174</f>
-        <v> 22.48%</v>
-      </c>
-      <c r="L162" s="0" t="n">
+        <v>22.48%</v>
+      </c>
+      <c r="L162" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -12731,9 +12730,9 @@
       </c>
       <c r="K178" s="1" t="str">
         <f aca="false">$G190</f>
-        <v> 0.79%</v>
-      </c>
-      <c r="L178" s="0" t="n">
+        <v>0.79%</v>
+      </c>
+      <c r="L178" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -13112,9 +13111,9 @@
       </c>
       <c r="K194" s="1" t="str">
         <f aca="false">$G206</f>
-        <v> 23.37%</v>
-      </c>
-      <c r="L194" s="0" t="n">
+        <v>23.37%</v>
+      </c>
+      <c r="L194" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13493,9 +13492,9 @@
       </c>
       <c r="K210" s="1" t="str">
         <f aca="false">$G222</f>
-        <v> 13.76%</v>
-      </c>
-      <c r="L210" s="0" t="n">
+        <v>13.76%</v>
+      </c>
+      <c r="L210" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13874,9 +13873,9 @@
       </c>
       <c r="K226" s="1" t="str">
         <f aca="false">$G238</f>
-        <v> 0.78%</v>
-      </c>
-      <c r="L226" s="0" t="n">
+        <v>0.78%</v>
+      </c>
+      <c r="L226" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14255,9 +14254,9 @@
       </c>
       <c r="K242" s="1" t="str">
         <f aca="false">$G254</f>
-        <v> 0.00%</v>
-      </c>
-      <c r="L242" s="0" t="n">
+        <v>0.00%</v>
+      </c>
+      <c r="L242" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -14636,9 +14635,9 @@
       </c>
       <c r="K258" s="1" t="str">
         <f aca="false">$G270</f>
-        <v> 8.22%</v>
-      </c>
-      <c r="L258" s="0" t="n">
+        <v>8.22%</v>
+      </c>
+      <c r="L258" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15017,9 +15016,9 @@
       </c>
       <c r="K274" s="1" t="str">
         <f aca="false">$G286</f>
-        <v> 0.37%</v>
-      </c>
-      <c r="L274" s="0" t="n">
+        <v>0.37%</v>
+      </c>
+      <c r="L274" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15398,9 +15397,9 @@
       </c>
       <c r="K290" s="1" t="str">
         <f aca="false">$G302</f>
-        <v> 6.37%</v>
-      </c>
-      <c r="L290" s="0" t="n">
+        <v>6.37%</v>
+      </c>
+      <c r="L290" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15779,9 +15778,9 @@
       </c>
       <c r="K306" s="1" t="str">
         <f aca="false">$G318</f>
-        <v> 3.80%</v>
-      </c>
-      <c r="L306" s="0" t="n">
+        <v>3.80%</v>
+      </c>
+      <c r="L306" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16145,310 +16144,380 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="23.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="23.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="4" t="n">
         <v>0.00450437020415209</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.0046372</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.70212765957447</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="4" t="n">
         <v>0.0630015535016555</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.064434</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.70212765957447</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="4" t="n">
         <v>0.363770458361448</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.36895</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.70212765957447</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="4" t="n">
         <v>0.984119760854897</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.98972</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1.70212765957447</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="4" t="n">
         <v>1.0043</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1.70212765957447</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="4" t="n">
         <v>0.00450437020415209</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.0055375</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="4" t="n">
         <v>0.0630015535016555</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.07329</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="4" t="n">
         <v>0.363770458361448</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.39388</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="4" t="n">
         <v>0.984119760854897</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="4" t="n">
         <v>0.99399</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="4" t="n">
         <v>1.0043</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>8.51063829787234</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="4" t="n">
         <v>0.00450437020415209</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="4" t="n">
         <v>0.016963</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="4" t="n">
         <v>0.0630015535016555</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="4" t="n">
         <v>0.14786</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="4" t="n">
         <v>0.363770458361448</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.54096</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="4" t="n">
         <v>0.984119760854897</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.9953</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="4" t="n">
         <v>1.0043</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="4" t="n">
         <v>0.00450437020415209</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="4" t="n">
         <v>0.029931</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>170.212765957447</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="4" t="n">
         <v>0.0630015535016555</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="4" t="n">
         <v>0.22134</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>170.212765957447</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="4" t="n">
         <v>0.363770458361448</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="4" t="n">
         <v>0.64007</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>170.212765957447</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="4" t="n">
         <v>0.984119760854897</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.99595</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>170.212765957447</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="4" t="n">
         <v>1.0043</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>170.212765957447</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>0.00450437020415209</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.05645</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">200/470*800</f>
+        <v>340.425531914894</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>0.2096</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>0.0630015535016555</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.33976</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">200/470*800</f>
+        <v>340.425531914894</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>0.2189</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>0.363770458361448</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.72781</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">200/470*800</f>
+        <v>340.425531914894</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>0.1425</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>0.984119760854897</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">200/470*800</f>
+        <v>340.425531914894</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>1.0043</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">200/470*800</f>
+        <v>340.425531914894</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16462,4 +16531,50 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>